--- a/doc/ProcessDocs/ProjectPlanning/FiniteBurnSolarSystem.xlsx
+++ b/doc/ProcessDocs/ProjectPlanning/FiniteBurnSolarSystem.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11940" windowHeight="5175" tabRatio="907"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11940" windowHeight="5175" tabRatio="907" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="SolarSystem" sheetId="16" r:id="rId1"/>
-    <sheet name="FiniteBurn" sheetId="15" r:id="rId2"/>
+    <sheet name="Navigation" sheetId="18" r:id="rId1"/>
+    <sheet name="SolarSystem" sheetId="16" r:id="rId2"/>
+    <sheet name="FiniteBurn" sheetId="15" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="61">
   <si>
     <t>Bookkeep</t>
   </si>
@@ -104,9 +105,6 @@
     <t>Fix linking issue on PC</t>
   </si>
   <si>
-    <t xml:space="preserve">Fix GetMJ2000State for bodies </t>
-  </si>
-  <si>
     <t>Create defaults for moons, asteriods, comets.</t>
   </si>
   <si>
@@ -143,9 +141,6 @@
     <t>Finite burn was not working inside branch commands.  Linda made a fix but requested that DJC review it.</t>
   </si>
   <si>
-    <t xml:space="preserve">There is an issue when calling GetMJ2000State for the Sun, and perhaps for moons.  </t>
-  </si>
-  <si>
     <t>Develop default for moon, asteroid, and comet.</t>
   </si>
   <si>
@@ -167,10 +162,43 @@
     <t>Add RotationDataSource to all default bodies</t>
   </si>
   <si>
-    <t>Set to IAU2002 for all bodies except moon and earth.  Earth should have FK5_IAU1980 as the only option.  Luna is good as is.  This also means that orientation data should be greyed out for all default bodies.</t>
-  </si>
-  <si>
     <t>Solar System Related Work Items</t>
+  </si>
+  <si>
+    <t>Fix Earth, Neptune, and Luna orientation values</t>
+  </si>
+  <si>
+    <t>User should not see or be able to set these</t>
+  </si>
+  <si>
+    <t>There is an issue when calling GetMJ2000State for the two-body Sun</t>
+  </si>
+  <si>
+    <t>The reference body pointer is not being passed to user defined  moons.</t>
+  </si>
+  <si>
+    <t>Tank Pressure Field</t>
+  </si>
+  <si>
+    <t>Add new field on tank called PressureModel with allowable values of PressureRegulared or BlowDown.  Deprecate the old field called PressureRegulated.  Fix base code to use the new settings.</t>
+  </si>
+  <si>
+    <t>Read OD Design Document</t>
+  </si>
+  <si>
+    <t>Participate in OD Design Review</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>User defined bodies do not bet correct central body pointer</t>
+  </si>
+  <si>
+    <t>Set to IAU2002 for all bodies except moon and earth and user-defined bodies.  Earth should have FK5_IAU1980 as the only option.  Luna is good as is.  User defined body should have IAUSimplified. Orientation data should be greyed out for all default bodies.</t>
+  </si>
+  <si>
+    <t>Fix  two body state for sun</t>
   </si>
 </sst>
 </file>
@@ -221,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -644,19 +672,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="8"/>
       </left>
@@ -665,37 +680,13 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -808,9 +799,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -829,6 +817,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -853,23 +844,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1233,10 +1209,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:M37"/>
+  <dimension ref="B1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" customWidth="1"/>
+    <col min="8" max="9" width="3.5703125" customWidth="1"/>
+    <col min="10" max="10" width="4" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" customWidth="1"/>
+    <col min="13" max="13" width="49.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="13.5" thickBot="1"/>
+    <row r="2" spans="2:13" ht="13.5" thickBot="1">
+      <c r="B2" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+    </row>
+    <row r="3" spans="2:13" ht="13.5" thickBot="1">
+      <c r="B3" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+    </row>
+    <row r="4" spans="2:13" ht="27" customHeight="1" thickBot="1">
+      <c r="B4" s="1"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="2:13" ht="80.25" customHeight="1" thickBot="1">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
+      <c r="B6" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="52"/>
+    </row>
+    <row r="7" spans="2:13" ht="15" customHeight="1">
+      <c r="B7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="36">
+        <v>3</v>
+      </c>
+      <c r="E7" s="14">
+        <f xml:space="preserve"> MIN(H7:K7)</f>
+        <v>2</v>
+      </c>
+      <c r="F7" s="14">
+        <f>MAX(H7:K7)</f>
+        <v>2</v>
+      </c>
+      <c r="G7" s="15">
+        <f>AVERAGE(H7:K7)</f>
+        <v>2</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14">
+        <v>2</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="2:13" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="29">
+        <v>3</v>
+      </c>
+      <c r="E8" s="10">
+        <f xml:space="preserve"> MIN(H8:K8)</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="10">
+        <f>MAX(H8:K8)</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="11">
+        <f>AVERAGE(H8:K8)</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10">
+        <v>1</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="30"/>
+    </row>
+    <row r="9" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
+      <c r="B9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="38">
+        <f t="shared" ref="D9:K9" si="0">SUM(D7:D8)</f>
+        <v>6</v>
+      </c>
+      <c r="E9" s="39">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F9" s="39">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G9" s="31">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H9" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="39">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L9" s="31"/>
+      <c r="M9" s="34"/>
+    </row>
+    <row r="10" spans="2:13" ht="13.5" thickBot="1">
+      <c r="B10" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="52"/>
+    </row>
+    <row r="16" spans="2:13" ht="13.5" customHeight="1"/>
+    <row r="21" ht="13.5" customHeight="1"/>
+    <row r="30" ht="13.5" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B10:M10"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="B6:M6"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
+  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:M39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1346,7 +1592,7 @@
     </row>
     <row r="6" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
       <c r="B6" s="50" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
@@ -1367,7 +1613,9 @@
       <c r="C7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="13">
+        <v>3</v>
+      </c>
       <c r="E7" s="14">
         <f xml:space="preserve"> MIN(H7:K7)</f>
         <v>3</v>
@@ -1392,20 +1640,22 @@
         <v>13</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="24" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="21.75" customHeight="1">
       <c r="B8" s="12" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="9">
+        <v>3</v>
+      </c>
       <c r="E8" s="10">
         <f xml:space="preserve"> MIN(H8:K8)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="10">
         <f>MAX(H8:K8)</f>
@@ -1413,12 +1663,12 @@
       </c>
       <c r="G8" s="11">
         <f>AVERAGE(H8:K8)</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" s="10">
         <v>3</v>
@@ -1426,156 +1676,153 @@
       <c r="L8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="22.5" customHeight="1">
+      <c r="M8" s="43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="24" customHeight="1">
       <c r="B9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10">
-        <f t="shared" ref="E9:E15" si="0" xml:space="preserve"> MIN(H9:K9)</f>
-        <v>1.5</v>
-      </c>
-      <c r="F9" s="10">
-        <f t="shared" ref="F9:F15" si="1">MAX(H9:K9)</f>
-        <v>1.5</v>
-      </c>
-      <c r="G9" s="11">
-        <f t="shared" ref="G9:G15" si="2">AVERAGE(H9:K9)</f>
-        <v>1.5</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="29"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10">
+      <c r="J9" s="10">
+        <v>2</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="22.5" customHeight="1">
+      <c r="B10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="9">
         <v>1.5</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="E10" s="10">
+        <f t="shared" ref="E10:E15" si="0" xml:space="preserve"> MIN(H10:K10)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" ref="F10:F15" si="1">MAX(H10:K10)</f>
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" ref="G10:G15" si="2">AVERAGE(H10:K10)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="L10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="34.5" customHeight="1">
-      <c r="B10" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="33" t="s">
+      <c r="M10" s="43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="34.5" customHeight="1">
+      <c r="B11" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10">
+      <c r="D11" s="9">
+        <v>2</v>
+      </c>
+      <c r="E11" s="10">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F11" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G11" s="11">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10">
-        <v>1</v>
-      </c>
-      <c r="K10" s="10">
+      <c r="H11" s="29"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10">
+        <v>1</v>
+      </c>
+      <c r="K11" s="10">
         <v>0.5</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="26.25" customHeight="1">
-      <c r="B11" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="33" t="s">
+      <c r="M11" s="43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="26.25" customHeight="1">
+      <c r="B12" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="10">
+      <c r="D12" s="26">
+        <v>4</v>
+      </c>
+      <c r="E12" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F12" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G12" s="11">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41">
+      <c r="H12" s="42"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40">
         <v>3</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K12" s="40">
         <v>4</v>
       </c>
-      <c r="L11" s="42" t="s">
+      <c r="L12" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="23.25" customHeight="1">
-      <c r="B12" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="10">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G12" s="11">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
-      </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="K12" s="41">
-        <v>1</v>
-      </c>
-      <c r="L12" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="36" customHeight="1">
+      <c r="M12" s="43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="23.25" customHeight="1">
       <c r="B13" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="26">
+        <v>1</v>
+      </c>
       <c r="E13" s="10">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -1588,32 +1835,34 @@
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41">
+      <c r="H13" s="42"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40">
         <v>0.5</v>
       </c>
-      <c r="K13" s="41">
-        <v>1</v>
-      </c>
-      <c r="L13" s="42" t="s">
+      <c r="K13" s="40">
+        <v>1</v>
+      </c>
+      <c r="L13" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="33" customHeight="1">
+      <c r="M13" s="43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="36" customHeight="1">
       <c r="B14" s="32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="26">
+        <v>1</v>
+      </c>
       <c r="E14" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F14" s="10">
         <f t="shared" si="1"/>
@@ -1621,116 +1870,189 @@
       </c>
       <c r="G14" s="11">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41">
-        <v>1</v>
-      </c>
-      <c r="L14" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="M14" s="44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="47.25" customHeight="1" thickBot="1">
+        <v>0.75</v>
+      </c>
+      <c r="H14" s="42"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="40">
+        <v>1</v>
+      </c>
+      <c r="L14" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="33" customHeight="1">
       <c r="B15" s="32" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54">
+      <c r="D15" s="26">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="42"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40">
+        <v>1</v>
+      </c>
+      <c r="L15" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="48.75" customHeight="1">
+      <c r="B16" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="26">
+        <v>3</v>
+      </c>
+      <c r="E16" s="10">
+        <f xml:space="preserve"> MIN(H16:J16)</f>
         <v>2</v>
       </c>
-      <c r="F15" s="54">
-        <f t="shared" si="1"/>
+      <c r="F16" s="10">
+        <f>MAX(H16:J16)</f>
         <v>2</v>
       </c>
-      <c r="G15" s="55">
-        <f t="shared" si="2"/>
+      <c r="G16" s="11">
+        <f>AVERAGE(H16:J16)</f>
         <v>2</v>
       </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57">
+      <c r="H16" s="42"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40">
         <v>2</v>
       </c>
-      <c r="L15" s="55" t="s">
+      <c r="K16" s="53">
+        <v>3</v>
+      </c>
+      <c r="L16" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="58" t="s">
+      <c r="M16" s="43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="24" customHeight="1" thickBot="1">
+      <c r="B17" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="26">
+        <v>2</v>
+      </c>
+      <c r="E17" s="10">
+        <f xml:space="preserve"> MIN(H17:J17)</f>
+        <v>2</v>
+      </c>
+      <c r="F17" s="10">
+        <f>MAX(H17:J17)</f>
+        <v>2</v>
+      </c>
+      <c r="G17" s="11">
+        <f>AVERAGE(H17:J17)</f>
+        <v>2</v>
+      </c>
+      <c r="H17" s="42"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40">
+        <v>2</v>
+      </c>
+      <c r="L17" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
-      <c r="B16" s="18" t="s">
+    <row r="18" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
+      <c r="B18" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="39">
-        <f t="shared" ref="D16:K16" si="3">SUM(D7:D14)</f>
+      <c r="C18" s="25"/>
+      <c r="D18" s="38">
+        <f>SUM(D7:D17)</f>
+        <v>23.5</v>
+      </c>
+      <c r="E18" s="39">
+        <f>SUM(E7:E17)</f>
+        <v>16</v>
+      </c>
+      <c r="F18" s="39">
+        <f>SUM(F7:F17)</f>
+        <v>20.5</v>
+      </c>
+      <c r="G18" s="31">
+        <f>SUM(G7:G17)</f>
+        <v>18.25</v>
+      </c>
+      <c r="H18" s="38">
+        <f>SUM(H7:H15)</f>
+        <v>3</v>
+      </c>
+      <c r="I18" s="39">
+        <f>SUM(I7:I15)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="40">
-        <f>SUM(E7:E15)</f>
-        <v>15</v>
-      </c>
-      <c r="F16" s="40">
-        <f>SUM(F7:F15)</f>
-        <v>18.5</v>
-      </c>
-      <c r="G16" s="31">
-        <f>SUM(G7:G15)</f>
-        <v>16.75</v>
-      </c>
-      <c r="H16" s="39">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="I16" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="40">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="K16" s="40">
-        <f>SUM(K7:K15)</f>
-        <v>18</v>
-      </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="34"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.5" thickBot="1">
-      <c r="B17" s="50" t="s">
+      <c r="J18" s="39">
+        <f>SUM(J7:J15)</f>
+        <v>9</v>
+      </c>
+      <c r="K18" s="39">
+        <f>SUM(K7:K17)</f>
+        <v>19</v>
+      </c>
+      <c r="L18" s="31"/>
+      <c r="M18" s="34"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.5" thickBot="1">
+      <c r="B19" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="52"/>
-    </row>
-    <row r="23" spans="2:13" ht="13.5" customHeight="1"/>
-    <row r="28" spans="2:13" ht="13.5" customHeight="1"/>
-    <row r="37" ht="13.5" customHeight="1"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="52"/>
+    </row>
+    <row r="25" spans="2:13" ht="13.5" customHeight="1"/>
+    <row r="30" spans="2:13" ht="13.5" customHeight="1"/>
+    <row r="39" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B19:M19"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="D4:G4"/>
@@ -1744,12 +2066,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:M34"/>
+  <dimension ref="B1:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1771,7 +2093,7 @@
     <row r="1" spans="2:13" ht="13.5" thickBot="1"/>
     <row r="2" spans="2:13" ht="13.5" thickBot="1">
       <c r="B2" s="45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
@@ -1880,10 +2202,12 @@
       <c r="C7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="36">
+        <v>3</v>
+      </c>
       <c r="E7" s="14">
         <f xml:space="preserve"> MIN(H7:K7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7" s="14">
         <f>MAX(H7:K7)</f>
@@ -1891,10 +2215,12 @@
       </c>
       <c r="G7" s="15">
         <f>AVERAGE(H7:K7)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" s="36"/>
-      <c r="I7" s="14"/>
+      <c r="I7" s="14">
+        <v>1</v>
+      </c>
       <c r="J7" s="14"/>
       <c r="K7" s="14">
         <v>5</v>
@@ -1913,10 +2239,12 @@
       <c r="C8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="29">
+        <v>3</v>
+      </c>
       <c r="E8" s="10">
         <f xml:space="preserve"> MIN(H8:K8)</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F8" s="10">
         <f>MAX(H8:K8)</f>
@@ -1924,10 +2252,12 @@
       </c>
       <c r="G8" s="11">
         <f>AVERAGE(H8:K8)</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="10"/>
+      <c r="I8" s="10">
+        <v>2.5</v>
+      </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10">
         <v>3</v>
@@ -1941,15 +2271,19 @@
     </row>
     <row r="9" spans="2:13" ht="27" customHeight="1">
       <c r="B9" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="28"/>
-      <c r="D9" s="9"/>
+      <c r="D9" s="29">
+        <v>0.5</v>
+      </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="11"/>
       <c r="H9" s="29"/>
-      <c r="I9" s="10"/>
+      <c r="I9" s="10">
+        <v>0.5</v>
+      </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10">
         <v>0.5</v>
@@ -1957,67 +2291,52 @@
       <c r="L9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="24" customHeight="1">
+      <c r="M9" s="43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="37.5" customHeight="1">
       <c r="B10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10">
-        <f xml:space="preserve"> MIN(H10:K10)</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="10">
-        <f>MAX(H10:K10)</f>
-        <v>1.5</v>
-      </c>
-      <c r="G10" s="11">
-        <f>AVERAGE(H10:K10)</f>
-        <v>1.25</v>
-      </c>
-      <c r="H10" s="29">
-        <v>1.5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="10">
-        <v>1</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="48" customHeight="1">
-      <c r="B11" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="33" t="s">
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="24" customHeight="1">
+      <c r="B11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="29">
+        <v>1.5</v>
+      </c>
       <c r="E11" s="10">
         <f xml:space="preserve"> MIN(H11:K11)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F11" s="10">
         <f>MAX(H11:K11)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G11" s="11">
         <f>AVERAGE(H11:K11)</f>
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="H11" s="29">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -2028,106 +2347,145 @@
         <v>13</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="16.5" customHeight="1" thickBot="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="48" customHeight="1">
       <c r="B12" s="32" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="16">
+      <c r="D12" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="10">
         <f xml:space="preserve"> MIN(H12:K12)</f>
         <v>0.5</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="10">
         <f>MAX(H12:K12)</f>
         <v>1</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="11">
         <f>AVERAGE(H12:K12)</f>
         <v>0.75</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="29">
         <v>0.5</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16">
-        <v>1</v>
-      </c>
-      <c r="L12" s="17" t="s">
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10">
+        <v>1</v>
+      </c>
+      <c r="L12" s="11" t="s">
         <v>13</v>
       </c>
       <c r="M12" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B13" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="16">
+        <f xml:space="preserve"> MIN(H13:K13)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="16">
+        <f>MAX(H13:K13)</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="17">
+        <f>AVERAGE(H13:K13)</f>
+        <v>0.75</v>
+      </c>
+      <c r="H13" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16">
+        <v>1</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
-      <c r="B13" s="18" t="s">
+    <row r="14" spans="2:13" ht="12.2" customHeight="1" thickBot="1">
+      <c r="B14" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="39">
-        <f t="shared" ref="D13:K13" si="0">SUM(D7:D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="40">
+      <c r="C14" s="25"/>
+      <c r="D14" s="38">
+        <f t="shared" ref="D14:K14" si="0">SUM(D7:D13)</f>
+        <v>9</v>
+      </c>
+      <c r="E14" s="39">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F13" s="40">
+        <v>5.5</v>
+      </c>
+      <c r="F14" s="39">
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G14" s="31">
         <f t="shared" si="0"/>
-        <v>10.75</v>
-      </c>
-      <c r="H13" s="39">
+        <v>8.5</v>
+      </c>
+      <c r="H14" s="38">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I14" s="39">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J14" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="40">
+      <c r="K14" s="39">
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
-      <c r="L13" s="31"/>
-      <c r="M13" s="34"/>
-    </row>
-    <row r="14" spans="2:13" ht="13.5" thickBot="1">
-      <c r="B14" s="50" t="s">
+      <c r="L14" s="31"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="15" spans="2:13" ht="13.5" thickBot="1">
+      <c r="B15" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="52"/>
-    </row>
-    <row r="20" ht="13.5" customHeight="1"/>
-    <row r="25" ht="13.5" customHeight="1"/>
-    <row r="34" ht="13.5" customHeight="1"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="52"/>
+    </row>
+    <row r="21" ht="13.5" customHeight="1"/>
+    <row r="26" ht="13.5" customHeight="1"/>
+    <row r="35" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="B15:M15"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="D4:G4"/>
